--- a/INPUT3.xlsx
+++ b/INPUT3.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Gopiashok123#</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.linkedin.com/sales/search/people?savedSearchId=1742460693</t>
+    <t xml:space="preserve">https://www.linkedin.com/sales/search/people?lastViewedAt=1697018937003&amp;savedSearchId=1742460693</t>
   </si>
   <si>
     <t xml:space="preserve">Looking for a staffing requirement</t>
@@ -188,10 +188,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="34.59"/>
@@ -220,7 +220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -243,7 +243,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="gopiraghu321@gmail.com"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://www.linkedin.com/sales/search/people?savedSearchId=1742460693"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
